--- a/112-1/DIGITAL SYSTEM DESIGN/Lab/Lab 5/Lab05.xlsx
+++ b/112-1/DIGITAL SYSTEM DESIGN/Lab/Lab 5/Lab05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-1\DIGITAL SYSTEM DESIGN\Lab\Lab 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28D2DC87-BC63-4026-84DD-596B623A9A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A40E415-ABC2-4127-9238-B88E62205EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{0345C058-9A04-4495-ACBA-14CF2EDB1099}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,30 @@
   </si>
   <si>
     <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F(A, B, C, D)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.987 V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.072 mV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.400 mV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.534 mV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.604 mV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,10 +94,8 @@
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>O</t>
     </r>
@@ -81,14 +103,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>I</t>
     </r>
     <r>
@@ -96,10 +110,8 @@
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>O</t>
     </r>
@@ -114,10 +126,8 @@
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>A</t>
     </r>
@@ -132,10 +142,8 @@
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -150,10 +158,8 @@
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>C</t>
     </r>
@@ -168,10 +174,8 @@
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>D</t>
     </r>
@@ -186,21 +190,63 @@
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>I</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F(A, B, C, D)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 V</t>
+    <t>0 A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.432 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.000 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.988 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.966 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.901 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.886 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.412 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.525 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.193 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.437 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.631 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.216 mA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,21 +271,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <vertAlign val="subscript"/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -264,11 +306,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,16 +632,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD01301-F00C-451B-AEDB-5E8882DF01EB}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="12.53125" customWidth="1"/>
+    <col min="11" max="11" width="16.06640625" customWidth="1"/>
+    <col min="12" max="12" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.19921875" customWidth="1"/>
+    <col min="14" max="14" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,40 +659,40 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
@@ -659,20 +708,38 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
@@ -688,17 +755,38 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
@@ -714,17 +802,38 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
@@ -740,17 +849,36 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
@@ -766,17 +894,34 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
@@ -805,6 +950,9 @@
       </c>
       <c r="D8">
         <v>0</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">

--- a/112-1/DIGITAL SYSTEM DESIGN/Lab/Lab 5/Lab05.xlsx
+++ b/112-1/DIGITAL SYSTEM DESIGN/Lab/Lab 5/Lab05.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-1\DIGITAL SYSTEM DESIGN\Lab\Lab 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fengchia-my.sharepoint.com/personal/d1166506_o365_fcu_edu_tw/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A40E415-ABC2-4127-9238-B88E62205EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{6BDAED4A-3AC3-409A-A237-04981DD92F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{242EF745-9084-4C2F-8420-45677D42FC6D}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{0345C058-9A04-4495-ACBA-14CF2EDB1099}"/>
+    <workbookView xWindow="1392" yWindow="1392" windowWidth="20760" windowHeight="14448" xr2:uid="{0345C058-9A04-4495-ACBA-14CF2EDB1099}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,122 @@
   </si>
   <si>
     <t>1.216 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tPLH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tPHL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tTLH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tTHL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75.3 ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.5 ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.8 ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.6 ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.8 ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.3 ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.4 ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74.5 ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.698 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.227 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.230 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.989 V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.433 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.431 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.466 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.234 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.092 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.195 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.101 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.156 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.146 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.099 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.095 mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.164 mA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,459 +746,1010 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD01301-F00C-451B-AEDB-5E8882DF01EB}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.53125" customWidth="1"/>
-    <col min="11" max="11" width="16.06640625" customWidth="1"/>
-    <col min="12" max="12" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.19921875" customWidth="1"/>
-    <col min="14" max="14" width="11.73046875" customWidth="1"/>
+    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="17" width="12.77734375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="H21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="I23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="I24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="G28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100A76360186E9C6A41BC5B668EBF5EFF67" ma:contentTypeVersion="4" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="e7e06fa906a948f026654c01e7ab7196">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f7162246-4718-49f5-9ac5-5fdc9bb78b4c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="554b8ce1b84d4cdd6066e98150279729" ns3:_="">
+    <xsd:import namespace="f7162246-4718-49f5-9ac5-5fdc9bb78b4c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f7162246-4718-49f5-9ac5-5fdc9bb78b4c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="內容類型"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="標題"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31E080E8-CE15-4B8C-8E3E-CCDF769A478E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f7162246-4718-49f5-9ac5-5fdc9bb78b4c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67C0EE53-B698-44DB-8192-B0A9077BF1D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E41FF6-9A01-4AF0-8C79-AEF7F46203F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f7162246-4718-49f5-9ac5-5fdc9bb78b4c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>